--- a/アカウント更新テストケース.xlsx
+++ b/アカウント更新テストケース.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF85C824-68AE-4FE7-BFDD-07F71690C2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C52CC94A-E81F-4BA7-8CB0-023A8A49EBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="結合テスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="127">
   <si>
     <t>No</t>
   </si>
@@ -61,33 +61,30 @@
     <t>環境</t>
   </si>
   <si>
-    <t>更新画面表示</t>
-  </si>
-  <si>
-    <t>1.一覧画面で任意の「更新」ボタンを押す</t>
-  </si>
-  <si>
-    <t>update.php に遷移し、該当アカウント情報が初期値として表示される</t>
+    <t>名前（姓）の
+表示確認</t>
+  </si>
+  <si>
+    <t>1.登録画面で全項目を正しく、
+入力
+2.「名前（姓）」にすでに入力されているものとは別の漢字またはひらがな（10文字以内）を入力
+3.「確認する」ボタンを押す</t>
+  </si>
+  <si>
+    <t>確認画面に「名前（姓）」の入力値が正しく表示</t>
+  </si>
+  <si>
+    <t>〇</t>
   </si>
   <si>
     <t>杉村</t>
+  </si>
+  <si>
+    <t>ー</t>
   </si>
   <si>
     <t>Windows 11／
 Chrome</t>
-  </si>
-  <si>
-    <t>名前（姓）の
-表示確認</t>
-  </si>
-  <si>
-    <t>1.登録画面で全項目を正しく
-入力
-2.「名前（姓）」に漢字またはひらがな（10文字以内）を入力
-3.「確認する」ボタンを押す</t>
-  </si>
-  <si>
-    <t>確認画面に「名前（姓）」の入力値が正しく表示</t>
   </si>
   <si>
     <t>名前（名）の
@@ -236,7 +233,9 @@
     <t>必須項目未入力</t>
   </si>
   <si>
-    <t>1. 登録画面で全項目を空欄のまま
+    <t>1. すでに入力されている情報を
+削除して、空欄にする
+（空欄に出来ない性別、住所、アカウント権限は除く）
  2. 「確認する」ボタンを押す</t>
   </si>
   <si>
@@ -326,7 +325,7 @@
   </si>
   <si>
     <t>メールアドレス
-形式不正</t>
+に不正文字</t>
   </si>
   <si>
     <t>1. 登録画面で全項目を正しく
@@ -389,17 +388,6 @@
     <t>8文字目が入力できず、7文字までしか入力されない</t>
   </si>
   <si>
-    <t>都道府県未選択</t>
-  </si>
-  <si>
-    <t>1. 登録画面で全項目を正しく
-入力し、「住所（都道府県）」を空欄のままにする 
-2. 「確認する」ボタンを押す</t>
-  </si>
-  <si>
-    <t>「住所（都道府県）が未選択です」と下に赤字で表示</t>
-  </si>
-  <si>
     <t>市区町村に
 不正文字</t>
   </si>
@@ -438,16 +426,30 @@
 にひらがな、カタカナ、漢字、数字、スペース、ハイフンいずれか101文字以上の文字列を入力</t>
   </si>
   <si>
+    <t>更新画面表示</t>
+  </si>
+  <si>
+    <t>1.一覧画面で任意の「更新」ボタンを押す</t>
+  </si>
+  <si>
+    <t>update.php に遷移し、該当アカウント情報が初期値として表示される</t>
+  </si>
+  <si>
     <t>入力保持</t>
   </si>
   <si>
     <t xml:space="preserve">1. 更新画面で任意の値を入力
-2. 「確認する」→確認画面へ遷移
-3. 「前に戻る」ボタン押下
+2. 「前に戻る」ボタン押下
 </t>
   </si>
   <si>
     <t>更新画面に戻った際、すべての入力値が保持されている</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>新しく入力したものが保持されず、元々入力されたアカウント情報になってしまう</t>
   </si>
   <si>
     <t>DB更新成功</t>
@@ -464,13 +466,15 @@
     <t>DB更新失敗</t>
   </si>
   <si>
-    <t xml:space="preserve">1. DB接続を意図的に切断
-（例：DB名ミス）
+    <t xml:space="preserve">1.XAMPPのMySQLを停止する
 2. 正常な入力で「更新する」
 </t>
   </si>
   <si>
     <t>「エラーが発生したためアカウント更新できません。」と赤字表示される</t>
+  </si>
+  <si>
+    <t>赤字でエラー表示されｚす、「DB接続エラー：SQLSTATE[HY000] [2002] 対象のコンピューターによって拒否されたため、接続できませんでした。」と表示された。</t>
   </si>
   <si>
     <t>パスワード暗号化</t>
@@ -485,13 +489,35 @@
     <t>パスワードがハッシュ化されて保存されている</t>
   </si>
   <si>
-    <t>データ反映</t>
+    <t>TOPページへ戻る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.アカウント更新完了画面でTOPページへ戻るを押す
+</t>
+  </si>
+  <si>
+    <t>index.htmlに遷移し、d.iブログのトップページが表示される</t>
+  </si>
+  <si>
+    <t>アカウント一覧への
+データ反映</t>
   </si>
   <si>
     <t>1. 更新処理完了後、一覧画面に戻る</t>
   </si>
   <si>
     <t>更新した内容が一覧画面に反映されている</t>
+  </si>
+  <si>
+    <t>DBへの
+データ反映</t>
+  </si>
+  <si>
+    <t>1.更新処理完了後、php MyAdmin
+にて更新したアカウントを確認</t>
+  </si>
+  <si>
+    <t>更新した内容がDBに反映されている</t>
   </si>
 </sst>
 </file>
@@ -541,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -639,11 +665,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -670,6 +754,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1006,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1053,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="141" customHeight="1">
+    <row r="2" spans="1:9" ht="184.5" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1066,869 +1183,903 @@
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G2" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="184.5" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G3" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="184.5" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G4" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="184.5" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G5" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="184.5" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="184.5" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G7" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="184.5" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G8" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="184.5" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G9" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="184.5" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G10" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="184.5" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G11" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="184.5" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="C12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="G12" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="184.5" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G13" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="184.5" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G14" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="184.5" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G15" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="184.5" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G16" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I16" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="184.5" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G17" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I17" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="184.5" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G18" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="184.5" customHeight="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G19" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I19" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="184.5" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G20" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I20" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="184.5" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G21" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="184.5" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G22" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I22" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="184.5" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G23" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="184.5" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G24" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="184.5" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G25" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I25" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="184.5" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G26" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I26" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="184.5" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="10"/>
+        <v>86</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G27" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="184.5" customHeight="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="10"/>
+        <v>89</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G28" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I28" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="184.5" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G29" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I29" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="184.5" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G30" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I30" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="141" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="184.5" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G31" s="11">
+        <v>45907</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="141" customHeight="1">
-      <c r="A32" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="184.5" customHeight="1">
+      <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="141" customHeight="1">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="C32" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="141" customHeight="1">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="141" customHeight="1">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="141" customHeight="1">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="141" customHeight="1">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="141" customHeight="1">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="141" customHeight="1">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="141" customHeight="1"/>
-    <row r="41" spans="1:9" ht="141" customHeight="1"/>
+      <c r="D32" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="20">
+        <v>45907</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" ht="184.5" customHeight="1"/>
+    <row r="34" ht="184.5" customHeight="1"/>
+    <row r="35" ht="184.5" customHeight="1"/>
+    <row r="36" ht="184.5" customHeight="1"/>
+    <row r="37" ht="184.5" customHeight="1"/>
+    <row r="38" ht="184.5" customHeight="1"/>
+    <row r="39" ht="184.5" customHeight="1"/>
+    <row r="40" ht="184.5" customHeight="1"/>
+    <row r="41" ht="184.5" customHeight="1"/>
+    <row r="42" ht="184.5" customHeight="1"/>
+    <row r="43" ht="184.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1936,12 +2087,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829B1192-B7E9-4EAE-9036-06FCF354510B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="A1:I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="182.25" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11">
+        <v>45908</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="182.25" customHeight="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11">
+        <v>45908</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="182.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11">
+        <v>45908</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="182.25" customHeight="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="11">
+        <v>45908</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="182.25" customHeight="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11">
+        <v>45908</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="182.25" customHeight="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11">
+        <v>45908</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="182.25" customHeight="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11">
+        <v>45908</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="182.25" customHeight="1">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="20">
+        <v>45908</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/アカウント更新テストケース.xlsx
+++ b/アカウント更新テストケース.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29301"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C52CC94A-E81F-4BA7-8CB0-023A8A49EBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB4CC53A-B9E5-416E-94F8-82CE43FE7B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
     <t>×</t>
   </si>
   <si>
-    <t>新しく入力したものが保持されず、元々入力されたアカウント情報になってしまう</t>
+    <t>新しく入力したものが保持されず、元々入力されたアカウント情報になってしまう→フォームを分けて POSTで戻すように修正</t>
   </si>
   <si>
     <t>DB更新成功</t>
@@ -474,7 +474,7 @@
     <t>「エラーが発生したためアカウント更新できません。」と赤字表示される</t>
   </si>
   <si>
-    <t>赤字でエラー表示されｚす、「DB接続エラー：SQLSTATE[HY000] [2002] 対象のコンピューターによって拒否されたため、接続できませんでした。」と表示された。</t>
+    <t>赤字でエラー表示されｚす、「DB接続エラー：SQLSTATE[HY000] [2002] 対象のコンピューターによって拒否されたため、接続できませんでした。」と表示された。→db_connect.phpを修正し、自身で入力したメッセージを優先して表示</t>
   </si>
   <si>
     <t>パスワード暗号化</t>
@@ -2090,7 +2090,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="A1:I9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2221,7 +2221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="182.25" customHeight="1">
+    <row r="5" spans="1:9" ht="366" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
